--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW13.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW13.xlsx
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1.791496752821089</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.7662030009656184</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6844512819774036</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1.791496752821089</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.7662030009656184</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.6844512819774036</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.791496752821089</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.7662030009656184</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.6844512819774036</v>
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>1.791496752821089</v>
+        <v>0.0</v>
       </c>
       <c r="L48" t="n">
-        <v>1.7662030009656184</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.1695162993422499</v>
+        <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>1.035886060943107</v>
+        <v>0.0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9610375421557528</v>
+        <v>0.0</v>
       </c>
       <c r="E176" t="n">
-        <v>1.1695162993422499</v>
+        <v>0.0</v>
       </c>
       <c r="F176" t="n">
-        <v>1.035886060943107</v>
+        <v>0.0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.9610375421557528</v>
+        <v>0.0</v>
       </c>
       <c r="H176" t="n">
-        <v>1.1695162993422499</v>
+        <v>0.0</v>
       </c>
       <c r="I176" t="n">
-        <v>1.035886060943107</v>
+        <v>0.0</v>
       </c>
       <c r="J176" t="n">
-        <v>0.9610375421557528</v>
+        <v>0.0</v>
       </c>
       <c r="K176" t="n">
-        <v>1.1695162993422499</v>
+        <v>0.0</v>
       </c>
       <c r="L176" t="n">
-        <v>1.035886060943107</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>3.8909928137595187</v>
+        <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>3.8755542718147575</v>
+        <v>0.0</v>
       </c>
       <c r="D178" t="n">
-        <v>3.3059242636087016</v>
+        <v>0.0</v>
       </c>
       <c r="E178" t="n">
-        <v>3.8909928137595187</v>
+        <v>0.0</v>
       </c>
       <c r="F178" t="n">
-        <v>3.8755542718147575</v>
+        <v>0.0</v>
       </c>
       <c r="G178" t="n">
-        <v>3.3059242636087016</v>
+        <v>0.0</v>
       </c>
       <c r="H178" t="n">
-        <v>3.8909928137595187</v>
+        <v>0.0</v>
       </c>
       <c r="I178" t="n">
-        <v>3.8755542718147575</v>
+        <v>0.0</v>
       </c>
       <c r="J178" t="n">
-        <v>3.3059242636087016</v>
+        <v>0.0</v>
       </c>
       <c r="K178" t="n">
-        <v>3.8909928137595187</v>
+        <v>0.0</v>
       </c>
       <c r="L178" t="n">
-        <v>3.8755542718147575</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4.824027466042243</v>
+        <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4.804886862617377</v>
+        <v>0.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4.09866330050989</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4.824027466042243</v>
+        <v>0.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4.804886862617377</v>
+        <v>0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4.09866330050989</v>
+        <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4.824027466042243</v>
+        <v>0.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4.804886862617377</v>
+        <v>0.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4.09866330050989</v>
+        <v>0.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4.824027466042243</v>
+        <v>0.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4.804886862617377</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -7399,37 +7399,37 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="n">
-        <v>1.2226540312617724</v>
+        <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>1.0889252137787109</v>
+        <v>0.0</v>
       </c>
       <c r="D193" t="n">
-        <v>1.202172245001662</v>
+        <v>0.0</v>
       </c>
       <c r="E193" t="n">
-        <v>1.2226540312617724</v>
+        <v>0.0</v>
       </c>
       <c r="F193" t="n">
-        <v>1.0889252137787109</v>
+        <v>0.0</v>
       </c>
       <c r="G193" t="n">
-        <v>1.202172245001662</v>
+        <v>0.0</v>
       </c>
       <c r="H193" t="n">
-        <v>1.2226540312617724</v>
+        <v>0.0</v>
       </c>
       <c r="I193" t="n">
-        <v>1.0889252137787109</v>
+        <v>0.0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.202172245001662</v>
+        <v>0.0</v>
       </c>
       <c r="K193" t="n">
-        <v>1.2226540312617724</v>
+        <v>0.0</v>
       </c>
       <c r="L193" t="n">
-        <v>1.0889252137787109</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>0.8941599896614276</v>
+        <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>0.8122096528882463</v>
+        <v>0.0</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9348199327630518</v>
+        <v>0.0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8941599896614276</v>
+        <v>0.0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.8122096528882463</v>
+        <v>0.0</v>
       </c>
       <c r="G230" t="n">
-        <v>0.9348199327630518</v>
+        <v>0.0</v>
       </c>
       <c r="H230" t="n">
-        <v>0.8941599896614276</v>
+        <v>0.0</v>
       </c>
       <c r="I230" t="n">
-        <v>0.8122096528882463</v>
+        <v>0.0</v>
       </c>
       <c r="J230" t="n">
-        <v>0.9348199327630518</v>
+        <v>0.0</v>
       </c>
       <c r="K230" t="n">
-        <v>0.8941599896614276</v>
+        <v>0.0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.8122096528882463</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>0.74987000907559</v>
+        <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7858308508150392</v>
+        <v>0.0</v>
       </c>
       <c r="D268" t="n">
-        <v>0.6797524995672412</v>
+        <v>0.0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.74987000907559</v>
+        <v>0.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.7858308508150392</v>
+        <v>0.0</v>
       </c>
       <c r="G268" t="n">
-        <v>0.6797524995672412</v>
+        <v>0.0</v>
       </c>
       <c r="H268" t="n">
-        <v>0.74987000907559</v>
+        <v>0.0</v>
       </c>
       <c r="I268" t="n">
-        <v>0.7858308508150392</v>
+        <v>0.0</v>
       </c>
       <c r="J268" t="n">
-        <v>0.6797524995672412</v>
+        <v>0.0</v>
       </c>
       <c r="K268" t="n">
-        <v>0.74987000907559</v>
+        <v>0.0</v>
       </c>
       <c r="L268" t="n">
-        <v>0.7858308508150392</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>0.5888877602475022</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>0.6228736983577118</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.5879983784257957</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>0.5888877602475022</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.6228736983577118</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>0.5879983784257957</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>0.5888877602475022</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>0.6228736983577118</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>0.5879983784257957</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>0.5888877602475022</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>0.6228736983577118</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -16481,37 +16481,37 @@
         <v>431.0</v>
       </c>
       <c r="B432" t="n">
-        <v>2.067473430746198</v>
+        <v>0.0</v>
       </c>
       <c r="C432" t="n">
-        <v>1.8413417777993617</v>
+        <v>0.0</v>
       </c>
       <c r="D432" t="n">
-        <v>2.0328393087261687</v>
+        <v>0.0</v>
       </c>
       <c r="E432" t="n">
-        <v>2.067473430746198</v>
+        <v>0.0</v>
       </c>
       <c r="F432" t="n">
-        <v>1.8413417777993617</v>
+        <v>0.0</v>
       </c>
       <c r="G432" t="n">
-        <v>2.0328393087261687</v>
+        <v>0.0</v>
       </c>
       <c r="H432" t="n">
-        <v>2.067473430746198</v>
+        <v>0.0</v>
       </c>
       <c r="I432" t="n">
-        <v>1.8413417777993617</v>
+        <v>0.0</v>
       </c>
       <c r="J432" t="n">
-        <v>2.0328393087261687</v>
+        <v>0.0</v>
       </c>
       <c r="K432" t="n">
-        <v>2.067473430746198</v>
+        <v>0.0</v>
       </c>
       <c r="L432" t="n">
-        <v>1.8413417777993617</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="433">
@@ -17127,37 +17127,37 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="n">
-        <v>2.035976459020094</v>
+        <v>0.0</v>
       </c>
       <c r="C449" t="n">
-        <v>1.8128216523568317</v>
+        <v>0.0</v>
       </c>
       <c r="D449" t="n">
-        <v>2.115895983748586</v>
+        <v>0.0</v>
       </c>
       <c r="E449" t="n">
-        <v>2.035976459020094</v>
+        <v>0.0</v>
       </c>
       <c r="F449" t="n">
-        <v>1.8128216523568317</v>
+        <v>0.0</v>
       </c>
       <c r="G449" t="n">
-        <v>2.115895983748586</v>
+        <v>0.0</v>
       </c>
       <c r="H449" t="n">
-        <v>2.035976459020094</v>
+        <v>0.0</v>
       </c>
       <c r="I449" t="n">
-        <v>1.8128216523568317</v>
+        <v>0.0</v>
       </c>
       <c r="J449" t="n">
-        <v>2.115895983748586</v>
+        <v>0.0</v>
       </c>
       <c r="K449" t="n">
-        <v>2.035976459020094</v>
+        <v>0.0</v>
       </c>
       <c r="L449" t="n">
-        <v>1.8128216523568317</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="450">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3711091371445522</v>
+        <v>0.0</v>
       </c>
       <c r="C523" t="n">
-        <v>0.3889060843319327</v>
+        <v>0.0</v>
       </c>
       <c r="D523" t="n">
-        <v>0.33640812478582854</v>
+        <v>0.0</v>
       </c>
       <c r="E523" t="n">
-        <v>0.3711091371445522</v>
+        <v>0.0</v>
       </c>
       <c r="F523" t="n">
-        <v>0.3889060843319327</v>
+        <v>0.0</v>
       </c>
       <c r="G523" t="n">
-        <v>0.33640812478582854</v>
+        <v>0.0</v>
       </c>
       <c r="H523" t="n">
-        <v>0.3711091371445522</v>
+        <v>0.0</v>
       </c>
       <c r="I523" t="n">
-        <v>0.3889060843319327</v>
+        <v>0.0</v>
       </c>
       <c r="J523" t="n">
-        <v>0.33640812478582854</v>
+        <v>0.0</v>
       </c>
       <c r="K523" t="n">
-        <v>0.3711091371445522</v>
+        <v>0.0</v>
       </c>
       <c r="L523" t="n">
-        <v>0.3889060843319327</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="524">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>0.2169332321707226</v>
+        <v>0.0</v>
       </c>
       <c r="C557" t="n">
-        <v>0.24474603582659188</v>
+        <v>0.0</v>
       </c>
       <c r="D557" t="n">
-        <v>0.22034775608495316</v>
+        <v>0.0</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2169332321707226</v>
+        <v>0.0</v>
       </c>
       <c r="F557" t="n">
-        <v>0.24474603582659188</v>
+        <v>0.0</v>
       </c>
       <c r="G557" t="n">
-        <v>0.22034775608495316</v>
+        <v>0.0</v>
       </c>
       <c r="H557" t="n">
-        <v>0.2169332321707226</v>
+        <v>0.0</v>
       </c>
       <c r="I557" t="n">
-        <v>0.24474603582659188</v>
+        <v>0.0</v>
       </c>
       <c r="J557" t="n">
-        <v>0.22034775608495316</v>
+        <v>0.0</v>
       </c>
       <c r="K557" t="n">
-        <v>0.2169332321707226</v>
+        <v>0.0</v>
       </c>
       <c r="L557" t="n">
-        <v>0.24474603582659188</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="558">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>0.2475416109163755</v>
+        <v>0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>0.23975527113154807</v>
+        <v>0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>0.23920359648749698</v>
+        <v>0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>0.2475416109163755</v>
+        <v>0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>0.23975527113154807</v>
+        <v>0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>0.23920359648749698</v>
+        <v>0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>0.2475416109163755</v>
+        <v>0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>0.23975527113154807</v>
+        <v>0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>0.23920359648749698</v>
+        <v>0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>0.2475416109163755</v>
+        <v>0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>0.23975527113154807</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
@@ -23663,37 +23663,37 @@
         <v>620.0</v>
       </c>
       <c r="B621" t="n">
-        <v>4.311667058515989</v>
+        <v>0.0</v>
       </c>
       <c r="C621" t="n">
-        <v>4.518437798574832</v>
+        <v>0.0</v>
       </c>
       <c r="D621" t="n">
-        <v>3.9084993730327127</v>
+        <v>0.0</v>
       </c>
       <c r="E621" t="n">
-        <v>4.311667058515989</v>
+        <v>0.0</v>
       </c>
       <c r="F621" t="n">
-        <v>4.518437798574832</v>
+        <v>0.0</v>
       </c>
       <c r="G621" t="n">
-        <v>3.9084993730327127</v>
+        <v>0.0</v>
       </c>
       <c r="H621" t="n">
-        <v>4.311667058515989</v>
+        <v>0.0</v>
       </c>
       <c r="I621" t="n">
-        <v>4.518437798574832</v>
+        <v>0.0</v>
       </c>
       <c r="J621" t="n">
-        <v>3.9084993730327127</v>
+        <v>0.0</v>
       </c>
       <c r="K621" t="n">
-        <v>4.311667058515989</v>
+        <v>0.0</v>
       </c>
       <c r="L621" t="n">
-        <v>4.518437798574832</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="622">
